--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ebi3</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ebi3</t>
-  </si>
-  <si>
-    <t>Il6st</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.878032333333334</v>
+        <v>9.105765666666665</v>
       </c>
       <c r="H2">
-        <v>8.634097000000001</v>
+        <v>27.317297</v>
       </c>
       <c r="I2">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>105.6624779406786</v>
+        <v>750.6190444265417</v>
       </c>
       <c r="R2">
-        <v>950.9623014661071</v>
+        <v>6755.571399838876</v>
       </c>
       <c r="S2">
-        <v>0.06827785450311462</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="T2">
-        <v>0.0682778545031146</v>
+        <v>0.3670006993429557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.878032333333334</v>
+        <v>9.105765666666665</v>
       </c>
       <c r="H3">
-        <v>8.634097000000001</v>
+        <v>27.317297</v>
       </c>
       <c r="I3">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>255.7911108915974</v>
+        <v>809.2938666528416</v>
       </c>
       <c r="R3">
-        <v>2302.119998024377</v>
+        <v>7283.644799875576</v>
       </c>
       <c r="S3">
-        <v>0.165289217071473</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="T3">
-        <v>0.165289217071473</v>
+        <v>0.3956886215996139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.878032333333334</v>
+        <v>9.105765666666665</v>
       </c>
       <c r="H4">
-        <v>8.634097000000001</v>
+        <v>27.317297</v>
       </c>
       <c r="I4">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>105.1062713306268</v>
+        <v>390.9545707290401</v>
       </c>
       <c r="R4">
-        <v>945.956441975641</v>
+        <v>3518.591136561361</v>
       </c>
       <c r="S4">
-        <v>0.06791844031242994</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="T4">
-        <v>0.06791844031242993</v>
+        <v>0.1911496942879981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.878032333333334</v>
+        <v>9.105765666666665</v>
       </c>
       <c r="H5">
-        <v>8.634097000000001</v>
+        <v>27.317297</v>
       </c>
       <c r="I5">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3279446910817746</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>40.94654787178389</v>
+        <v>94.41212057484432</v>
       </c>
       <c r="R5">
-        <v>368.518930846055</v>
+        <v>849.709085173599</v>
       </c>
       <c r="S5">
-        <v>0.02645917919475705</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="T5">
-        <v>0.02645917919475705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5.897936333333334</v>
-      </c>
-      <c r="H6">
-        <v>17.693809</v>
-      </c>
-      <c r="I6">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="J6">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>36.71344366666667</v>
-      </c>
-      <c r="N6">
-        <v>110.140331</v>
-      </c>
-      <c r="O6">
-        <v>0.2081992981130139</v>
-      </c>
-      <c r="P6">
-        <v>0.2081992981130138</v>
-      </c>
-      <c r="Q6">
-        <v>216.5335533234199</v>
-      </c>
-      <c r="R6">
-        <v>1948.801979910779</v>
-      </c>
-      <c r="S6">
-        <v>0.1399214436098992</v>
-      </c>
-      <c r="T6">
-        <v>0.1399214436098992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.897936333333334</v>
-      </c>
-      <c r="H7">
-        <v>17.693809</v>
-      </c>
-      <c r="I7">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="J7">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>88.87708033333332</v>
-      </c>
-      <c r="N7">
-        <v>266.631241</v>
-      </c>
-      <c r="O7">
-        <v>0.5040155293450301</v>
-      </c>
-      <c r="P7">
-        <v>0.50401552934503</v>
-      </c>
-      <c r="Q7">
-        <v>524.1913612985521</v>
-      </c>
-      <c r="R7">
-        <v>4717.72225168697</v>
-      </c>
-      <c r="S7">
-        <v>0.3387263122735572</v>
-      </c>
-      <c r="T7">
-        <v>0.338726312273557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.897936333333334</v>
-      </c>
-      <c r="H8">
-        <v>17.693809</v>
-      </c>
-      <c r="I8">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="J8">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>36.52018433333333</v>
-      </c>
-      <c r="N8">
-        <v>109.560553</v>
-      </c>
-      <c r="O8">
-        <v>0.20710333833547</v>
-      </c>
-      <c r="P8">
-        <v>0.2071033383354699</v>
-      </c>
-      <c r="Q8">
-        <v>215.3937220795975</v>
-      </c>
-      <c r="R8">
-        <v>1938.543498716377</v>
-      </c>
-      <c r="S8">
-        <v>0.13918489802304</v>
-      </c>
-      <c r="T8">
-        <v>0.13918489802304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.897936333333334</v>
-      </c>
-      <c r="H9">
-        <v>17.693809</v>
-      </c>
-      <c r="I9">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="J9">
-        <v>0.6720553089182254</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.22727166666667</v>
-      </c>
-      <c r="N9">
-        <v>42.681815</v>
-      </c>
-      <c r="O9">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="P9">
-        <v>0.08068183420648613</v>
-      </c>
-      <c r="Q9">
-        <v>83.91154248703722</v>
-      </c>
-      <c r="R9">
-        <v>755.2038823833351</v>
-      </c>
-      <c r="S9">
-        <v>0.05422265501172908</v>
-      </c>
-      <c r="T9">
-        <v>0.05422265501172908</v>
+        <v>0.04616098476943217</v>
       </c>
     </row>
   </sheetData>
